--- a/Sprint Reviews/Sprint_Review_Protocol_1_Savveen.xlsx
+++ b/Sprint Reviews/Sprint_Review_Protocol_1_Savveen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WEB-SS2023\Savveen\Sprint Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45FF33A-4F00-4043-B632-3ECD2BD61366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9CFBFB-6938-437F-B3AD-48DCA7B8B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Search w/ continuous filter</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>xampp issues</t>
@@ -805,7 +802,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -912,13 +909,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
@@ -1001,8 +998,8 @@
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>53</v>
+      <c r="F14" s="3">
+        <v>1</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
@@ -1024,8 +1021,8 @@
         <f t="shared" ref="E15:E29" si="0">D15-C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>53</v>
+      <c r="F15" s="3">
+        <v>1</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="7"/>
@@ -1047,12 +1044,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
+      <c r="F16" s="3">
+        <v>1</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1072,12 +1069,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
+      <c r="F17" s="3">
+        <v>1</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1097,8 +1094,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>53</v>
+      <c r="F18" s="3">
+        <v>1</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
@@ -1120,8 +1117,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>53</v>
+      <c r="F19" s="3">
+        <v>1</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
@@ -1143,8 +1140,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>53</v>
+      <c r="F20" s="3">
+        <v>1</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
@@ -1166,8 +1163,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>53</v>
+      <c r="F21" s="3">
+        <v>1</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
@@ -1189,12 +1186,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>53</v>
+      <c r="F22" s="3">
+        <v>1</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1214,12 +1211,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>53</v>
+      <c r="F23" s="3">
+        <v>1</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1239,12 +1236,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>53</v>
+      <c r="F24" s="3">
+        <v>1</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1254,16 +1251,20 @@
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1273,12 +1274,20 @@
       <c r="B26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1288,12 +1297,20 @@
       <c r="B27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="C27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1303,11 +1320,17 @@
       <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
       <c r="D28" s="7"/>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="4" t="s">
-        <v>53</v>
+      <c r="G28" s="4">
+        <v>1</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1318,15 +1341,17 @@
       <c r="B29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="4" t="s">
-        <v>53</v>
+      <c r="G29" s="4">
+        <v>1</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1340,15 +1365,15 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6">
         <f>SUM(E14:E29)</f>
-        <v>17</v>
+        <v>19.75</v>
       </c>
       <c r="F30" s="6">
         <f>COUNT(F14:F29)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G30" s="6">
         <f>COUNT(G14:G29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="6"/>
     </row>
